--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\BFoHPbF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54263B1F-4804-432C-9849-66BD0A8B2C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
+    <workbookView xWindow="1125" yWindow="1470" windowWidth="22170" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BFoHPbF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Source:</t>
   </si>
@@ -36,9 +52,6 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>Fuel use fractions are provided for CHP systems.</t>
-  </si>
-  <si>
     <t>We use these as a stand-in for the fuel use fractions of district heating</t>
   </si>
   <si>
@@ -100,16 +113,43 @@
   </si>
   <si>
     <t>BFoHPbF BAU Fraction of Heat Provided by Fuel</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Fuel use by fuel (fractions) are provided for CHP systems.</t>
+  </si>
+  <si>
+    <t>Fraction of Heat Provided by Fuel (dimensionless)</t>
+  </si>
+  <si>
+    <t>Note on Heat Pumps</t>
+  </si>
+  <si>
+    <t>The "electricity" fuel type represents heat pumps.</t>
+  </si>
+  <si>
+    <t>This can be changed by altering dist-heat/EoCtUH.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,14 +169,6 @@
       <u/>
       <sz val="10"/>
       <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF3333FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +210,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -187,11 +218,14 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -202,6 +236,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -250,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,9 +320,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +372,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,8 +564,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +576,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,12 +598,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -543,42 +614,60 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -592,16 +681,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -628,7 +717,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>55622.2</v>
@@ -654,7 +743,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>8003.3</v>
@@ -680,7 +769,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>4050.7</v>
@@ -706,7 +795,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1090.2</v>
@@ -732,7 +821,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>7030.9</v>
@@ -757,93 +846,93 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
         <f>SUM(B3:H3)</f>
         <v>102357.8</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f>B10/SUM(B$10:B$14)</f>
         <v>0.52282852429039151</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f>C10+C$14*(C10/SUM(C$10:C$13))</f>
         <v>0.63892242256425869</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
         <f t="shared" ref="B11:B14" si="0">SUM(B4:H4)</f>
         <v>27282.9</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f t="shared" ref="C11:C14" si="1">B11/SUM(B$10:B$14)</f>
         <v>0.13935702355230695</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f t="shared" ref="D11:D13" si="2">C11+C$14*(C11/SUM(C$10:C$13))</f>
         <v>0.17030120384160674</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>5432.5999999999995</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f t="shared" si="1"/>
         <v>2.7748918412275184E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <f t="shared" si="2"/>
         <v>3.3910556428748871E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>25130.5</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f t="shared" si="1"/>
         <v>0.12836288225889658</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f t="shared" si="2"/>
         <v>0.15686581716538556</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>35573.200000000004</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f t="shared" si="1"/>
         <v>0.18170265148612963</v>
       </c>
@@ -854,125 +943,127 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9">
         <v>2015</v>
       </c>
       <c r="C1">
         <v>2016</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="9">
         <v>2017</v>
       </c>
       <c r="E1">
         <v>2018</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="9">
         <v>2019</v>
       </c>
       <c r="G1">
         <v>2020</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="9">
         <v>2021</v>
       </c>
       <c r="I1">
         <v>2022</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="9">
         <v>2023</v>
       </c>
       <c r="K1">
         <v>2024</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="9">
         <v>2025</v>
       </c>
       <c r="M1">
         <v>2026</v>
       </c>
-      <c r="N1" s="11">
+      <c r="N1" s="9">
         <v>2027</v>
       </c>
       <c r="O1">
         <v>2028</v>
       </c>
-      <c r="P1" s="11">
+      <c r="P1" s="9">
         <v>2029</v>
       </c>
       <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="R1" s="11">
+      <c r="R1" s="9">
         <v>2031</v>
       </c>
       <c r="S1">
         <v>2032</v>
       </c>
-      <c r="T1" s="11">
+      <c r="T1" s="9">
         <v>2033</v>
       </c>
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="11">
+      <c r="V1" s="9">
         <v>2035</v>
       </c>
       <c r="W1">
         <v>2036</v>
       </c>
-      <c r="X1" s="11">
+      <c r="X1" s="9">
         <v>2037</v>
       </c>
       <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="Z1" s="9">
         <v>2039</v>
       </c>
       <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AB1" s="11">
+      <c r="AB1" s="9">
         <v>2041</v>
       </c>
       <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AD1" s="11">
+      <c r="AD1" s="9">
         <v>2043</v>
       </c>
       <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AF1" s="11">
+      <c r="AF1" s="9">
         <v>2045</v>
       </c>
       <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AH1" s="11">
+      <c r="AH1" s="9">
         <v>2047</v>
       </c>
       <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AJ1" s="11">
+      <c r="AJ1" s="9">
         <v>2049</v>
       </c>
       <c r="AK1">
@@ -981,7 +1072,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1129,14 +1220,14 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="12">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10">
         <f>Data!D11</f>
         <v>0.17030120384160674</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:R7" si="1">$B3</f>
+        <f t="shared" ref="C3:R11" si="1">$B3</f>
         <v>0.17030120384160674</v>
       </c>
       <c r="D3">
@@ -1278,9 +1369,9 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="12">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10">
         <f>Data!D10</f>
         <v>0.63892242256425869</v>
       </c>
@@ -1427,9 +1518,9 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="12">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10">
         <f>Data!D13</f>
         <v>0.15686581716538556</v>
       </c>
@@ -1576,9 +1667,9 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="12">
+        <v>22</v>
+      </c>
+      <c r="B6" s="10">
         <f>Data!D12</f>
         <v>3.3910556428748871E-2</v>
       </c>
@@ -1725,7 +1816,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1868,6 +1959,598 @@
       </c>
       <c r="AK7">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:AH11" si="2">$B8</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" ref="AI8:AK11" si="3">$B8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
